--- a/output.xlsx
+++ b/output.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42nd day after the contract date</t>
+          <t xml:space="preserve">  See Special Condition 56 – Completion Date   </t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">subject to existing tenancies  </t>
+          <t>['VACANT POSSE SSION  ']</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>$</t>
+          <t>TBA</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Inclusions are marked under the inclusion tab of the contract</t>
+          <t>Inclusions are not marked under the inclusion tab of the contract</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t xml:space="preserve">  Battery for Solar Panels  </t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Land tax is marked as adjustable</t>
+          <t>Land tax is not marked as adjustable or not adjustable</t>
         </is>
       </c>
     </row>
